--- a/data/financial_statements/socf/NTRS.xlsx
+++ b/data/financial_statements/socf/NTRS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2034 +590,2037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-1180300000</v>
+      </c>
+      <c r="C2">
         <v>394800000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>396200000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>389300000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>406400000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>395700000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>368100000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>375100000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>240900000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>294500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>313300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>360600000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>371100000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>384600000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>389400000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>347100000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>409900000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>374500000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>390400000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>381600000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>356600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>298400000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>267900000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>276100000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>266500000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>257600000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>263000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>245400000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>239300000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>234600000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>269200000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>230700000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>244000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>204500000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>181900000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>181400000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>169700000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>206500000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>191100000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>164000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>158000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>146300000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>152600000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>157200000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>154200000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>152400000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>151500000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>153400000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>147400000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>142200000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>146200000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>130200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>129400000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>130000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>133900000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>130100000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>134700000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>140500000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>151500000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>126900000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>140400000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>139200000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>120200000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>131900000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>120200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>119300000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>102800000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>99800000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>97600000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>108400000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>99100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>89800000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>94100000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>100100000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>86500000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>99900000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>87500000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>98000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>77800000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>-774500000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-1804000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-524400000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1621000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-206700000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1110300000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-860900000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>928800000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-69300000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2768700000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-3519800000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1144900000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-324100000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>58400000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>289900000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-433000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>670500000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-320100000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-694500000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-140200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>51200000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-102100000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>560300000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-50500000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>733800000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-867600000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-207500000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>797800000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-1328100000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>853300000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>268400000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-559500000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-365100000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>21800000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>498800000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-262100000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1903600000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-1865400000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>40700000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-300000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-93200000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>285400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-321600000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-60400000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-12200000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-66700000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-43100000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>87000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>83300000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-122700000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>278300000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>141700000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-365000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-105300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>44000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-33500000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-127800000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-79700000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>15800000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-63700000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-65800000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-5600000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-48700000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-39000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>53900000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-95400000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-2900000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>14400000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-78000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>50300000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-21200000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-98400000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>395400000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-254900000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-178300000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-122400000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>126800000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-32300000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>66900000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>13700000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-11600000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4200000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-7700000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7300000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-18600000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>11100000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-10400000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-5700000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-14400000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-3900000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-1700000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-3600000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>13400000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5700000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-5800000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>8200000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2400000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5900000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-800000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1400000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-3000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2300000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-2300000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2900000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-2600000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-6200000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-1600000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7300000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-10100000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-100000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3500000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-2500000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6600000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-18800000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>37200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>25400000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-70700000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-130000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>36200000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-129000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>206800000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>55200000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-31500000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-440900000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-269800000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>432000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>153300000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>194800000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-626300000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>462000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>189500000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-548600000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-113400000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>456100000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-203000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>249400000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-126300000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-368300000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>435700000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>294300000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>242300000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-242400000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>461200000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>122600000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-713700000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-172200000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>669100000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>104700000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>222700000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-343100000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>12100000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-64800000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-113900000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-151500000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-144200000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-108900000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>312400000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>26800000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>77200000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>169900000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-151300000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>81100000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-895700000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1610800000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>746900000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2041900000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>481800000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-1236000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>68300000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1476300000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-77900000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3183700000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-2685300000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1636400000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>577100000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>84800000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>293700000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>459100000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1453900000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>332300000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-477800000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>850700000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>557100000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-472100000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>784700000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>838500000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1178700000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-211700000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-295500000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1350600000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-1043400000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1036400000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>490800000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-337500000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-266500000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1001500000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>538500000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-121600000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2242600000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-1594200000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>312500000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-23500000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-21400000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-25800000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-30500000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-25900000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-28400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-10700000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-33200000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-26000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-39000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-37600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-108200000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-22100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-18600000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-9100000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-58600000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-15700000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-17300000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-6000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-27900000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-23600000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-25800000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-14300000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-53300000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-26000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-20000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-12000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-43200000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-12700000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-17100000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-25500000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-30900000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-18600000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-18900000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-13500000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-86900000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>26700000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-19800000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-11900000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-155200000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-146800000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-123200000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-140900000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-109400000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-74500000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-94800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-137100000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-99700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-93000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-94800000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-137100000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-95900000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-126900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-81900000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-119300000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-114900000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-94400000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-79800000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-93000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-108900000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-99400000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-79900000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-111700000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-96600000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-88800000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-65000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-106000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-80200000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-80400000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-68400000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-92400000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-75600000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-84700000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-74900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-89200000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-73100000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-70300000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-60400000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-10500000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-34200000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-70000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-188500000</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>-16900000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-1746100000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>16819000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7317100000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-13499400000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4596500000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-5899800000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8074500000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-16713200000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4034200000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>5175000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-12324500000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-11658300000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4767900000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-4681000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>7759900000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1188000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1686300000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-3996500000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>11981300000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-5865900000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-4876500000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-2287100000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>492000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-4071800000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1685400000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-2769900000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2565300000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5126300000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-3729000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-8391900000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>7288300000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3665900000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-7500600000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-947100000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3048900000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-6636700000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-709100000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-906200000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1709000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>2355297000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1050101000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2103700000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3142695300</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-697304700</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1529301000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-1338801000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>701604000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-3674902000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-2479000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-1215600000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-469099600</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-2510702600</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1258201000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2104400000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-523702000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-1451598000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-1575199000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-1514101000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2210898400</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-1060998600</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>795799400</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>769099600</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-672499000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-3835401000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-2033400000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-1430000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-902701000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1709500000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-2039800000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-3128400000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-1616601000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1364601000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-165200000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-3005200000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-45999000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-143700200</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-286600100</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>903100100</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-1039000000</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>-303800000</v>
+        <v>-3882800000</v>
       </c>
       <c r="D15">
-        <v>-179000000</v>
+        <v>-2800700000</v>
       </c>
       <c r="E15">
-        <v>-151000000</v>
+        <v>1053800000</v>
       </c>
       <c r="F15">
-        <v>725900000</v>
+        <v>-1977500000</v>
       </c>
       <c r="G15">
+        <v>-1343900000</v>
+      </c>
+      <c r="H15">
         <v>-2891900000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-1496500000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-626600000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>943200000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4645000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-7827800000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-30700000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-461600000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-708000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1834300000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-1473300000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1626600000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-1785299900</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>774799900</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>330300000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>402300000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>292000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-140400000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-30100000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1950300000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-663900000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-395800000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-451200000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-742400000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>54800000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-1260100000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-1094700000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>248900000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-1046600000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-777400000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>665500000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-1301900000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-444900000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1899100000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-3452300000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>14900200000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10325600000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-18791000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2420000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-7365300000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5133700000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-16808500000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1176800000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7209000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-21500300000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-12403400000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1667100000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-4276300000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>11607600000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1021100000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1730700000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-7538700000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>11156200000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-8055900000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-5667700000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-1324500000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1026500000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-4939400000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-322300000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-5592900000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>662500000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3623200000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-2854800000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-10474400000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2805900000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>831300000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-5981300000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-2262500000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-822100000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-6193300000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-2201100000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-1727800000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>4438900000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>6880700000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1847100000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-272600000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-2356100000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>11900000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>154900000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1216100000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-4446500000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>40600000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-1134600000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2584100000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-489400000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-400000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>312500000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-2229600000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>314500000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-1313900000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3667900100</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-981100100</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>253600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>4068700000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>138500000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-910100000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1111100000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-2230700000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2123000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-156200000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>35300000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1246700000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-160100000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>40000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-34200000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1407000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-1104100000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-1137400000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>985000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-2015500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1450300000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1187000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-400000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-300000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-31200000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3200000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-92200000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2100000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-126900000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7500000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1400000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1600000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-288000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-240300000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-296400000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-267600000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-251900000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-231900000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-227900000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-187800000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-244100000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-145700000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-112000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-124500000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-32900000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>106800000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-29700000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-119400000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-135000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-146700000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-128100000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-53100000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-75000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-160000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-24700000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-59500000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-109000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-110800000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-71300000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>41700000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-23100000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2512,649 +2629,649 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-400000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>392500000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>493500000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>388500000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-150700000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-162200000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-150200000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-161700000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-150800000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-162000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-150600000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-162000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-150500000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-165100000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-152900000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-166000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-135000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-148400000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-126700000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-139100000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-99900000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-111900000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-100900000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-113000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-92800000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-108000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-92800000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-91900000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-87700000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-88100000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-88700000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-89400000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-89600000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-82900000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-86500000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-77500000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-75500000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-74900000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-75000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-74300000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-74500000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-70700000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-1100000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-2826000000</v>
       </c>
-      <c r="C21">
-        <v>-100000</v>
-      </c>
       <c r="D21">
-        <v>300000</v>
+        <v>-13428399000</v>
       </c>
       <c r="E21">
-        <v>700000</v>
+        <v>-9862601000</v>
       </c>
       <c r="F21">
-        <v>-600000</v>
+        <v>18158100000</v>
       </c>
       <c r="G21">
+        <v>-3234000000</v>
+      </c>
+      <c r="H21">
         <v>8805700000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-5844200000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19440600000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-727000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-10539300000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>23964800000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10618000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-2051700000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4534500000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-8838200000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>134300000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-1297900000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2842600000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-7841100000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>6441199000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>768600000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2985700000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-1671800000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3589400000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>553200000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2207600000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>379700000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-2834500000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>310500000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>12717300000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-2069800000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-145699000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>3580799000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2665400000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2109500000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>6014200000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>172000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2809800000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-5830400000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>3903600000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-11743800000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-10316600000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>15643500000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-3465100000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8800700000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-4905600000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>14839600000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-838300000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-11837400000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>25708000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10114800000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-2483500000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4431000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-11446400000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>77800000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-2939600000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>6210800000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-9167200000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6436100000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>4632500000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2891700000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-2707600000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4715400000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-1301400000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4123100000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-200000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-3035300000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1339500000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>12421200000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-2191300000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-417400000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>5276100000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1426900000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>788100000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>6814100000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-1989300000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4231100000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-4667600000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-182600000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-209000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-29500000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-32300000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-41300000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15500000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-101500000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>144600000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>14700000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>73700000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-148400000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>73800000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-71400000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>34700000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>37600000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-7600000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-59700000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-197700000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>52100000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>24300000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>46200000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-49500000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>213600000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-175200000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>25600000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5200000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>203100000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>34900000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-112400000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>87800000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-81200000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>29100000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-54600000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>103000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>9400000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-27500000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7600000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-51700000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-63000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-627000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1336600000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>726400000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1137900000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-604600000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>214900000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>194900000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-348000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>275300000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-1371000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1374000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-578400000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-310700000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>274200000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>492500000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-491800000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>185300000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-1193300000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1563300000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-744800000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-431900000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1045600000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-682800000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>439300000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-419400000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-1676300000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>569900000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1973400000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-2671100000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>3071000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1024200000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>105500000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-1026300000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>268900000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>513900000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>471700000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-1940200000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>857400000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>20800000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>3056800000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3163,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>4389500000</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3175,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>4459200000</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3187,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>4581600000</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3199,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>4518100000</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3211,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>5332000000</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3223,34 +3340,34 @@
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>6418500000</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>-29600000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>3050600000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-3400000</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>3162400000</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3259,958 +3376,967 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>3752700000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-627000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1336600000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3783200000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-1137900000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-604600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>214900000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4584400000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-348000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>275300000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-1371000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5833200000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-578400000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-310700000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>274200000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5074100000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-491800000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>185300000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-1193300000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>6081400000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-744800000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-431900000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1045600000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4649200000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>439300000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-419400000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-1676300000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>6988400000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1973400000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-2671100000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>3041400000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4074800000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>102100000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-1026300000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>268900000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3676300000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>471700000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-1940200000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>857400000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3773500000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>-146000000</v>
+        <v>437500000</v>
       </c>
       <c r="C27">
         <v>-146000000</v>
       </c>
       <c r="D27">
-        <v>-145500000</v>
+        <v>-146000000</v>
       </c>
       <c r="E27">
         <v>-145500000</v>
       </c>
       <c r="F27">
+        <v>-145500000</v>
+      </c>
+      <c r="G27">
         <v>-146100000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-145800000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-145900000</v>
-      </c>
-      <c r="I27">
-        <v>-145800000</v>
       </c>
       <c r="J27">
         <v>-145800000</v>
       </c>
       <c r="K27">
+        <v>-145800000</v>
+      </c>
+      <c r="L27">
         <v>-145900000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-147100000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-148700000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-129100000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-131100000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-120800000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-121800000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-94000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-94600000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-95000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-95600000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-87000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-87300000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-86900000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-86100000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-81800000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-82300000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-82800000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-83600000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-83700000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-77100000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-77000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-77500000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-75500000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-74900000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-75000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-74300000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-74500000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-70700000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-1100000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-1.6541</v>
+      </c>
+      <c r="C28">
         <v>-1.7397</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1.8731</v>
       </c>
-      <c r="D28">
-        <v>-2.3112</v>
-      </c>
       <c r="E28">
-        <v>-2.4849</v>
+        <v>-2.3111</v>
       </c>
       <c r="F28">
+        <v>-2.4877</v>
+      </c>
+      <c r="G28">
         <v>-2.1339</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-2.2282</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-2.1847</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-2.9049</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2.1506</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-2.2815</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-2.6868</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-1.3842</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-1.4076</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-1.7046</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-1.4573</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-1.967</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-1.6833</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-1.7457</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1.6956</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-2.1456</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-2.0502</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-1.7168</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-1.7495</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1.7488</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-2.0678</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-2.256</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-2.2513</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-2.1174</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-2.4487</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-2.1415</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-1.6151</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-2.0789</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-2.3214</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-2.0785</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-1.9001</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-2.1623</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-1.9778</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1.8543</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-1.8974</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-233100000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-79500000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>297400000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-296000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-56200000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-19900000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-59400000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-36300000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>98100000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>72900000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-128400000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>193200000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>137800000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-366700000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-108900000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-83600000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-20100000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-120800000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-74000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>46200000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-55500000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-63400000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>300000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-178500000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-37600000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>50900000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-93100000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>201600000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>17300000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-80600000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>44100000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>32400000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-91100000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>385300000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-255000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-206300000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-124900000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>133400000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-51100000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>609200000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>17869100000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>9420800000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-16642096000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3899196000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-4370499000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6735699000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-16011600000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>359300000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2696000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-13540100000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-12127399000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2257198000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-3422800000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>9864300000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>664299000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>234701000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-5571700000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>10467200000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-8076800000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-5937499400</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-1491300600</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1261100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-4744299000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-2150001000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-4803300000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1135300000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>4223600000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-2019501000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-10431700000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>4159900000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2049299000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-6135999000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-1112300200</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>43700200</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-6682698800</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-852800200</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-1192800000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2612100000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-4700000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-16200000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-4700000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-16200000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-4700000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-16200000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-4700000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-16200000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-4700000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-19200000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-5800000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-17300000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-5900000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-17300000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-5900000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-17300000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-5900000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-17300000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-5900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-17400000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-5800000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-20700000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-5900000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-5800000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-5900000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-5800000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-5900000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-5800000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-5900000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-5800000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-9500000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-400000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-300000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-31200000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3200000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-92200000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2100000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-126900000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>7500000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1400000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1600000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-688000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>152200000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-296400000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-267600000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-251900000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-231900000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-227900000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-187800000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-244100000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-145700000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-112000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-124500000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-32900000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>106800000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>463800000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-119400000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-135000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-146700000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-128100000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-53100000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-75000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-160000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>363800000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-59500000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-109000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-110800000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-71300000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>41700000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-23100000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-400000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-300000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-31200000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3200000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-92200000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2100000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-126900000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7500000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-1400000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>1600000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-688000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>152200000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-296400000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-267600000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-251900000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-231900000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-227900000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-187800000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-244100000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-145700000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-112000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-124500000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-32900000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>106800000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>463800000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-119400000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-135000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-146700000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-128100000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-53100000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-75000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-160000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>363800000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-59500000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-109000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-110800000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-71300000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>41700000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-23100000</v>
       </c>
     </row>
